--- a/data_sources/Relocation_WindFarms.xlsx
+++ b/data_sources/Relocation_WindFarms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsc\.julia\dev\EU_gird_operations_thesis\data_sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsc\.julia\dev\EU_grid_operations_thesis\data_sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880B181-EF35-4022-9665-C84FDBFF7D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF308256-F31C-446D-AD3A-0495C6441B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{BCA74855-F4A1-4BF0-92B2-3FF72AB887F5}"/>
+    <workbookView xWindow="28680" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{BCA74855-F4A1-4BF0-92B2-3FF72AB887F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
   <si>
     <t>WindFarm</t>
   </si>
@@ -65,9 +65,6 @@
     <t>NO1</t>
   </si>
   <si>
-    <t> 2,966944</t>
-  </si>
-  <si>
     <t>old_lat</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t>Hollandse Kust Noord Holland</t>
-  </si>
-  <si>
-    <t>4,0952 </t>
   </si>
   <si>
     <t>Nederwiek III</t>
@@ -326,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,6 +343,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -365,7 +370,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -374,6 +378,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -760,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BB95B-0E4B-47B4-997C-4B97FDC57ACC}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,48 +781,48 @@
     <col min="6" max="6" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3922</v>
       </c>
@@ -842,14 +847,14 @@
       <c r="H2">
         <v>20000</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>51.5351127333333</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>2.4925608499999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3925</v>
       </c>
@@ -874,14 +879,14 @@
       <c r="H3">
         <v>20001</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>51.527777999999998</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>3.0319440000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3926</v>
       </c>
@@ -906,14 +911,14 @@
       <c r="H4">
         <v>20002</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>51.5617968166666</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>2.5765168150000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3923</v>
       </c>
@@ -938,14 +943,15 @@
       <c r="H5">
         <v>20003</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>51.551667000000002</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="6">
+        <v>2.9669439999999998</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3924</v>
       </c>
@@ -970,14 +976,14 @@
       <c r="H6">
         <v>20004</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>51.72</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>2.735833</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3935</v>
       </c>
@@ -1002,14 +1008,14 @@
       <c r="H7">
         <v>484</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>54.35</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>6.7830000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3930</v>
       </c>
@@ -1034,14 +1040,14 @@
       <c r="H8">
         <v>479</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>54.35</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>6.7830000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3937</v>
       </c>
@@ -1066,14 +1072,14 @@
       <c r="H9">
         <v>492</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>54.25</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>6.7779999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3939</v>
       </c>
@@ -1098,14 +1104,14 @@
       <c r="H10">
         <v>533</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>54.01</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>7.1559999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3950</v>
       </c>
@@ -1130,17 +1136,17 @@
       <c r="H11">
         <v>20005</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>54.905999999999999</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>6.3150000000000004</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3944</v>
       </c>
@@ -1165,17 +1171,17 @@
       <c r="H12">
         <v>20006</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>54.067888889999999</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>6.17188889</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3943</v>
       </c>
@@ -1200,14 +1206,14 @@
       <c r="H13">
         <v>594</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>53.8</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>6.7169999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3941</v>
       </c>
@@ -1232,14 +1238,14 @@
       <c r="H14">
         <v>566</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>53.89</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>6.78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3931</v>
       </c>
@@ -1264,14 +1270,14 @@
       <c r="H15">
         <v>480</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>54.35</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>6.7830000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3951</v>
       </c>
@@ -1296,14 +1302,14 @@
       <c r="H16">
         <v>20007</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>54.905999999999999</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>6.3150000000000004</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1331,10 +1337,10 @@
       <c r="H17">
         <v>567</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>53.89</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>6.78</v>
       </c>
     </row>
@@ -1363,10 +1369,10 @@
       <c r="H18">
         <v>467</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>54.5</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>7.1180000000000003</v>
       </c>
     </row>
@@ -1395,10 +1401,10 @@
       <c r="H19">
         <v>466</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>54.567999999999998</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>14.045</v>
       </c>
     </row>
@@ -1427,14 +1433,14 @@
       <c r="H20">
         <v>20008</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>54.820972230000002</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>13.64797222</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1462,10 +1468,10 @@
       <c r="H21">
         <v>483</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>54.35</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>6.7830000000000004</v>
       </c>
     </row>
@@ -1494,10 +1500,10 @@
       <c r="H22">
         <v>457</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>54.947000000000003</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>7.5919999999999996</v>
       </c>
     </row>
@@ -1526,10 +1532,10 @@
       <c r="H23">
         <v>481</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>54.35</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>6.7830000000000004</v>
       </c>
     </row>
@@ -1558,10 +1564,10 @@
       <c r="H24">
         <v>485</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>54.35</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>6.7830000000000004</v>
       </c>
     </row>
@@ -1590,10 +1596,10 @@
       <c r="H25">
         <v>482</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>54.35</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>6.7830000000000004</v>
       </c>
     </row>
@@ -1622,10 +1628,10 @@
       <c r="H26">
         <v>497</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>54.207999999999998</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>8.0220000000000002</v>
       </c>
     </row>
@@ -1654,10 +1660,10 @@
       <c r="H27">
         <v>534</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>54.01</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>7.1559999999999997</v>
       </c>
     </row>
@@ -1686,14 +1692,14 @@
       <c r="H28">
         <v>20009</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>54.905999999999999</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>6.3150000000000004</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1721,14 +1727,14 @@
       <c r="H29">
         <v>20010</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>54.905999999999999</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>6.3150000000000004</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1756,14 +1762,14 @@
       <c r="H30">
         <v>20011</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>54.905999999999999</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>6.3150000000000004</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1791,14 +1797,14 @@
       <c r="H31">
         <v>20012</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>54.905999999999999</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>6.3150000000000004</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1826,10 +1832,10 @@
       <c r="H32">
         <v>477</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>54.371000000000002</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>8.0399999999999991</v>
       </c>
     </row>
@@ -1858,14 +1864,14 @@
       <c r="H33">
         <v>20013</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>54.067888889999999</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>6.17188889</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1893,14 +1899,14 @@
       <c r="H34">
         <v>20014</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>55.485972220000001</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>7.8399722199999999</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1928,14 +1934,14 @@
       <c r="H35">
         <v>20015</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>56.6</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>11.21</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1963,14 +1969,14 @@
       <c r="H36">
         <v>20016</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>56.666899999999998</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>11.0266</v>
       </c>
       <c r="K36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1998,14 +2004,14 @@
       <c r="H37">
         <v>20017</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>56.903399</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>10.64080555</v>
       </c>
       <c r="K37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2033,14 +2039,14 @@
       <c r="H38">
         <v>20018</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>55.6</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>7.5819722299999999</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2068,14 +2074,14 @@
       <c r="H39">
         <v>20019</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>57.55</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>9.7629999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2103,14 +2109,14 @@
       <c r="H40">
         <v>20020</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>56.16</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>7</v>
       </c>
       <c r="K40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2138,17 +2144,17 @@
       <c r="H41">
         <v>20021</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>56.329972230000003</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <v>7.6399722199999998</v>
       </c>
       <c r="K41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2176,17 +2182,17 @@
       <c r="H42">
         <v>20022</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>56.16</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>7</v>
       </c>
       <c r="K42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2214,14 +2220,14 @@
       <c r="H43">
         <v>20023</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>55.679972229999997</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>12.82</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2249,14 +2255,14 @@
       <c r="H44">
         <v>20024</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>54.55836111</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <v>11.53066667</v>
       </c>
       <c r="K44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2284,14 +2290,14 @@
       <c r="H45">
         <v>20025</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>55.59</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>11.00997222</v>
       </c>
       <c r="K45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2319,14 +2325,14 @@
       <c r="H46">
         <v>20026</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>56</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>7</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2354,14 +2360,14 @@
       <c r="H47">
         <v>20027</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>55.03</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>12.93997222</v>
       </c>
       <c r="K47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2389,14 +2395,14 @@
       <c r="H48">
         <v>20028</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>43.08</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <v>4.6059999999999999</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2424,17 +2430,17 @@
       <c r="H49">
         <v>20029</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>46.869972230000002</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <v>-2.5099722199999999</v>
       </c>
       <c r="K49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2462,17 +2468,17 @@
       <c r="H50">
         <v>20030</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>50.149972220000002</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <v>1.1200000000000001</v>
       </c>
       <c r="K50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2500,17 +2506,17 @@
       <c r="H51">
         <v>20031</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>49.469000000000001</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>-0.55200000000000005</v>
       </c>
       <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
         <v>21</v>
-      </c>
-      <c r="L51" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2538,17 +2544,17 @@
       <c r="H52">
         <v>20032</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>49.768277779999998</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <v>0.38355555000000002</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2576,14 +2582,14 @@
       <c r="H53">
         <v>20033</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <v>52.329972222222203</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <v>4.0720000000000001</v>
       </c>
       <c r="K53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2611,14 +2617,14 @@
       <c r="H54">
         <v>20034</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>51.75</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <v>3.06</v>
       </c>
       <c r="K54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2646,14 +2652,14 @@
       <c r="H55">
         <v>20035</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>54.271999999999998</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <v>5.577</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2681,14 +2687,14 @@
       <c r="H56">
         <v>20036</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>54.036000000000001</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <v>5.9630000000000001</v>
       </c>
       <c r="K56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2716,17 +2722,17 @@
       <c r="H57">
         <v>20037</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <v>52.6</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <v>4.42</v>
       </c>
       <c r="K57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2754,14 +2760,14 @@
       <c r="H58">
         <v>20038</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <v>54.276000000000003</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <v>5.58</v>
       </c>
       <c r="K58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2789,14 +2795,14 @@
       <c r="H59">
         <v>20039</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <v>52.914000000000001</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <v>3.5779999999999998</v>
       </c>
       <c r="K59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2824,17 +2830,17 @@
       <c r="H60">
         <v>20040</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>53.000176000000003</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <v>3.5779999999999998</v>
       </c>
       <c r="K60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2862,14 +2868,14 @@
       <c r="H61">
         <v>20041</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>52.98</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <v>3.5779999999999998</v>
       </c>
       <c r="K61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2897,14 +2903,14 @@
       <c r="H62">
         <v>20042</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>54.247199999999999</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="6">
         <v>4.1128</v>
       </c>
       <c r="K62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2932,17 +2938,17 @@
       <c r="H63">
         <v>20043</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <v>53.036999999999999</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="6">
         <v>3.1920000000000002</v>
       </c>
       <c r="K63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2970,17 +2976,17 @@
       <c r="H64">
         <v>20044</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>52.594333333333303</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <v>4.2125277777777699</v>
       </c>
       <c r="K64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3008,14 +3014,14 @@
       <c r="H65">
         <v>20045</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <v>52.719972222222196</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="6">
         <v>5.58</v>
       </c>
       <c r="K65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3043,14 +3049,14 @@
       <c r="H66">
         <v>20046</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>54.036000000000001</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <v>5.9</v>
       </c>
       <c r="K66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3078,14 +3084,14 @@
       <c r="H67">
         <v>20047</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <v>52.68</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="6">
         <v>3.77</v>
       </c>
       <c r="K67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3113,17 +3119,17 @@
       <c r="H68">
         <v>20048</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <v>53</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="6">
         <v>5.2599722222222196</v>
       </c>
       <c r="K68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3151,17 +3157,17 @@
       <c r="H69">
         <v>20049</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <v>53.1721</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>45</v>
+      <c r="J69" s="6">
+        <v>4.0952000000000002</v>
       </c>
       <c r="K69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3189,14 +3195,14 @@
       <c r="H70">
         <v>20050</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>51.739998999999997</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="6">
         <v>2.879972</v>
       </c>
       <c r="K70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3224,14 +3230,14 @@
       <c r="H71">
         <v>20051</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="6">
         <v>52.67</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="6">
         <v>4.2699722222222203</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3259,10 +3265,10 @@
       <c r="H72">
         <v>4917</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="6">
         <v>59.893999999999998</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="6">
         <v>10.281000000000001</v>
       </c>
     </row>
@@ -3291,14 +3297,14 @@
       <c r="H73">
         <v>20052</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="6">
         <v>54.039972222222197</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="6">
         <v>1.27</v>
       </c>
       <c r="K73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3326,14 +3332,14 @@
       <c r="H74">
         <v>20053</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>54.088000000000001</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="6">
         <v>-3.4369722222222201</v>
       </c>
       <c r="K74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3361,14 +3367,14 @@
       <c r="H75">
         <v>20054</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="6">
         <v>53.57</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="6">
         <v>1.29</v>
       </c>
       <c r="K75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3396,14 +3402,14 @@
       <c r="H76">
         <v>20055</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <v>58.188000000000002</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="6">
         <v>-2.72</v>
       </c>
       <c r="K76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3431,14 +3437,14 @@
       <c r="H77">
         <v>20056</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="6">
         <v>54</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="6">
         <v>-3.99</v>
       </c>
       <c r="K77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3466,14 +3472,14 @@
       <c r="H78">
         <v>20057</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="6">
         <v>51.772694444444397</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="6">
         <v>1.98197222222222</v>
       </c>
       <c r="K78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3501,14 +3507,14 @@
       <c r="H79">
         <v>20058</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="6">
         <v>52.7</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="6">
         <v>2.8599722222222201</v>
       </c>
       <c r="K79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3536,14 +3542,14 @@
       <c r="H80">
         <v>20059</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="6">
         <v>51.625972222222202</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="6">
         <v>1.49597222222222</v>
       </c>
       <c r="K80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3571,14 +3577,14 @@
       <c r="H81">
         <v>20060</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="6">
         <v>51.46</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="6">
         <v>1.09297222222222</v>
       </c>
       <c r="K81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3606,14 +3612,14 @@
       <c r="H82">
         <v>20061</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="6">
         <v>53.92</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="6">
         <v>1.56</v>
       </c>
       <c r="K82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3641,14 +3647,14 @@
       <c r="H83">
         <v>20062</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="6">
         <v>58.409972222222201</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="6">
         <v>-1.22997222222222</v>
       </c>
       <c r="K83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3676,14 +3682,14 @@
       <c r="H84">
         <v>20063</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="6">
         <v>51.429972222222197</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="6">
         <v>1.633</v>
       </c>
       <c r="K84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3711,10 +3717,10 @@
       <c r="H85">
         <v>5543</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="6">
         <v>57.524999999999999</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="6">
         <v>-1.744</v>
       </c>
     </row>
@@ -3743,14 +3749,14 @@
       <c r="H86">
         <v>20064</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="6">
         <v>53.478972222222197</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="6">
         <v>0.83697222222222201</v>
       </c>
       <c r="K86" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3778,14 +3784,14 @@
       <c r="H87">
         <v>20065</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="6">
         <v>58.146000000000001</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="6">
         <v>-0.62</v>
       </c>
       <c r="K87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -3813,14 +3819,14 @@
       <c r="H88">
         <v>20066</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <v>54.63</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="6">
         <v>1.47997222222222</v>
       </c>
       <c r="K88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -3848,14 +3854,14 @@
       <c r="H89">
         <v>20067</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="6">
         <v>56.610972222222202</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="6">
         <v>-1.82097222222222</v>
       </c>
       <c r="K89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -3883,14 +3889,14 @@
       <c r="H90">
         <v>20068</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="6">
         <v>50.659972222222201</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="6">
         <v>-0.2</v>
       </c>
       <c r="K90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -3918,14 +3924,14 @@
       <c r="H91">
         <v>20069</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="6">
         <v>54.979972222222202</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="6">
         <v>1.67997222222222</v>
       </c>
       <c r="K91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -3953,14 +3959,14 @@
       <c r="H92">
         <v>20070</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="6">
         <v>53.134972222222203</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="6">
         <v>1.147</v>
       </c>
       <c r="K92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -3988,14 +3994,14 @@
       <c r="H93">
         <v>20071</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="6">
         <v>56.267000000000003</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="6">
         <v>-2.25</v>
       </c>
       <c r="K93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4023,14 +4029,14 @@
       <c r="H94">
         <v>20072</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="6">
         <v>53.46</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="6">
         <v>-3.5990000000000002</v>
       </c>
       <c r="K94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4058,14 +4064,14 @@
       <c r="H95">
         <v>20073</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="6">
         <v>53.719972222222196</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="6">
         <v>-3.9199722222222202</v>
       </c>
       <c r="K95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4093,14 +4099,14 @@
       <c r="H96">
         <v>20074</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="6">
         <v>53.810416666666598</v>
       </c>
-      <c r="J96" s="7">
+      <c r="J96" s="6">
         <v>-4.9074166666666601</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4128,14 +4134,14 @@
       <c r="H97">
         <v>20075</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="6">
         <v>56.49</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J97" s="6">
         <v>-2.1949722222222201</v>
       </c>
       <c r="K97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
